--- a/output/Inter_IntraVariation_CK.xlsx
+++ b/output/Inter_IntraVariation_CK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C49713-8457-419F-9187-99D90E1632D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{77C49713-8457-419F-9187-99D90E1632D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{866300A9-C34B-4980-B52C-0850CC141C28}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4E0824B5-875B-40B9-920C-3369E689C253}"/>
+    <workbookView xWindow="3030" yWindow="2430" windowWidth="14400" windowHeight="7370" xr2:uid="{4E0824B5-875B-40B9-920C-3369E689C253}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="2" r:id="rId1"/>
@@ -632,30 +632,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD948F92-F30E-4C35-9CD4-36F7688BAFFD}">
   <dimension ref="A1:R510"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="6" width="8.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="31"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="1"/>
-    <col min="16" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="31"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.1796875" style="1"/>
+    <col min="5" max="6" width="8.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="31"/>
+    <col min="10" max="11" width="9.1796875" style="1"/>
+    <col min="12" max="12" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.1796875" style="1"/>
+    <col min="16" max="17" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" style="31"/>
+    <col min="19" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -707,7 +707,7 @@
       </c>
       <c r="R1" s="32"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -761,7 +761,7 @@
         <v>23.205847675789411</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="P6" s="29"/>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="P12" s="26"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="C13" s="23"/>
       <c r="G13" s="30"/>
@@ -1199,7 +1199,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>6.0948957860509063</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="P16" s="31"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="P17" s="31"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="P18" s="31"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>7</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="P19" s="31"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="P20" s="31"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>7</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="P21" s="31"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="P22" s="31"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="P23" s="31"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="P24" s="31"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="P25" s="39"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>7</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>7</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>4.6191343889637961</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="P28" s="31"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="P29" s="31"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>7</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="P30" s="31"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>7</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="P31" s="31"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="P32" s="31"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>7</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="P33" s="31"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="P34" s="31"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>7</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="P35" s="31"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>7</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="P36" s="31"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>7</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="P37" s="39"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>7</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="P38" s="31"/>
       <c r="Q38" s="31"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>7</v>
       </c>
@@ -2222,8 +2222,8 @@
       <c r="P39" s="31"/>
       <c r="Q39" s="31"/>
     </row>
-    <row r="40" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2236,7 +2236,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2249,7 +2249,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2262,7 +2262,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2275,7 +2275,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2288,7 +2288,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2301,7 +2301,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2314,7 +2314,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2327,7 +2327,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2340,7 +2340,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2353,7 +2353,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2366,7 +2366,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2379,7 +2379,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2392,7 +2392,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2405,7 +2405,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2418,7 +2418,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2431,7 +2431,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2444,7 +2444,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2457,7 +2457,7 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2470,7 +2470,7 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2483,7 +2483,7 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2496,7 +2496,7 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2509,7 +2509,7 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2522,7 +2522,7 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2535,7 +2535,7 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2548,7 +2548,7 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2561,7 +2561,7 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2574,7 +2574,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2587,7 +2587,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2600,7 +2600,7 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2613,7 +2613,7 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2626,7 +2626,7 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2639,7 +2639,7 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2652,7 +2652,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2665,7 +2665,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2678,7 +2678,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2691,7 +2691,7 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2704,7 +2704,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2717,7 +2717,7 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2730,7 +2730,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2743,7 +2743,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2756,7 +2756,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2769,7 +2769,7 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2782,7 +2782,7 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2795,7 +2795,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2808,7 +2808,7 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2821,7 +2821,7 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2834,7 +2834,7 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2847,7 +2847,7 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2860,7 +2860,7 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2873,7 +2873,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2886,7 +2886,7 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2899,7 +2899,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2912,7 +2912,7 @@
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2925,7 +2925,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2938,7 +2938,7 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2951,7 +2951,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2964,7 +2964,7 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2977,7 +2977,7 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2990,7 +2990,7 @@
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3003,7 +3003,7 @@
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3016,7 +3016,7 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3029,7 +3029,7 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3042,7 +3042,7 @@
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -3055,7 +3055,7 @@
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3068,7 +3068,7 @@
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3081,7 +3081,7 @@
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -3094,7 +3094,7 @@
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -3107,7 +3107,7 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -3120,7 +3120,7 @@
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -3133,7 +3133,7 @@
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -3146,7 +3146,7 @@
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3159,7 +3159,7 @@
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -3172,7 +3172,7 @@
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -3185,7 +3185,7 @@
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -3198,7 +3198,7 @@
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3211,7 +3211,7 @@
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3224,7 +3224,7 @@
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3237,7 +3237,7 @@
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3250,7 +3250,7 @@
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3263,7 +3263,7 @@
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3276,7 +3276,7 @@
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3289,7 +3289,7 @@
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3302,7 +3302,7 @@
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3315,7 +3315,7 @@
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3328,7 +3328,7 @@
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3341,7 +3341,7 @@
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3354,7 +3354,7 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3367,7 +3367,7 @@
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -3380,7 +3380,7 @@
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -3393,7 +3393,7 @@
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -3406,7 +3406,7 @@
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -3419,7 +3419,7 @@
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -3432,7 +3432,7 @@
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -3445,7 +3445,7 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3458,7 +3458,7 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -3471,7 +3471,7 @@
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -3484,7 +3484,7 @@
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3497,7 +3497,7 @@
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -3510,7 +3510,7 @@
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -3523,7 +3523,7 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -3536,7 +3536,7 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -3549,7 +3549,7 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -3562,7 +3562,7 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -3575,7 +3575,7 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -3588,7 +3588,7 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -3601,7 +3601,7 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -3614,7 +3614,7 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -3627,7 +3627,7 @@
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -3640,7 +3640,7 @@
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -3653,7 +3653,7 @@
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -3666,7 +3666,7 @@
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -3679,7 +3679,7 @@
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -3692,7 +3692,7 @@
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -3705,7 +3705,7 @@
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -3718,7 +3718,7 @@
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -3731,7 +3731,7 @@
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -3744,7 +3744,7 @@
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -3757,7 +3757,7 @@
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -3770,7 +3770,7 @@
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -3783,7 +3783,7 @@
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -3796,7 +3796,7 @@
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -3809,7 +3809,7 @@
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -3822,7 +3822,7 @@
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -3835,7 +3835,7 @@
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -3848,7 +3848,7 @@
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -3861,7 +3861,7 @@
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -3874,7 +3874,7 @@
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -3887,7 +3887,7 @@
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -3900,7 +3900,7 @@
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -3913,7 +3913,7 @@
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -3926,7 +3926,7 @@
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -3939,7 +3939,7 @@
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -3952,7 +3952,7 @@
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -3965,7 +3965,7 @@
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -3978,7 +3978,7 @@
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -3991,7 +3991,7 @@
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -4004,7 +4004,7 @@
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -4017,7 +4017,7 @@
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -4030,7 +4030,7 @@
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -4043,7 +4043,7 @@
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -4056,7 +4056,7 @@
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -4069,7 +4069,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -4082,7 +4082,7 @@
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -4095,7 +4095,7 @@
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -4108,7 +4108,7 @@
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -4121,7 +4121,7 @@
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -4134,7 +4134,7 @@
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -4147,7 +4147,7 @@
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -4160,7 +4160,7 @@
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -4173,7 +4173,7 @@
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -4186,7 +4186,7 @@
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -4199,7 +4199,7 @@
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -4212,7 +4212,7 @@
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -4225,7 +4225,7 @@
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -4238,7 +4238,7 @@
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -4251,7 +4251,7 @@
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -4264,7 +4264,7 @@
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -4277,7 +4277,7 @@
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -4290,7 +4290,7 @@
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -4303,7 +4303,7 @@
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -4316,7 +4316,7 @@
       <c r="K201" s="6"/>
       <c r="L201" s="6"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -4329,7 +4329,7 @@
       <c r="K202" s="6"/>
       <c r="L202" s="6"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -4342,7 +4342,7 @@
       <c r="K203" s="6"/>
       <c r="L203" s="6"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -4355,7 +4355,7 @@
       <c r="K204" s="6"/>
       <c r="L204" s="6"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -4368,7 +4368,7 @@
       <c r="K205" s="6"/>
       <c r="L205" s="6"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -4381,7 +4381,7 @@
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -4394,7 +4394,7 @@
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -4407,7 +4407,7 @@
       <c r="K208" s="6"/>
       <c r="L208" s="6"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -4420,7 +4420,7 @@
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -4433,7 +4433,7 @@
       <c r="K210" s="6"/>
       <c r="L210" s="6"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -4446,7 +4446,7 @@
       <c r="K211" s="6"/>
       <c r="L211" s="6"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -4459,7 +4459,7 @@
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -4472,7 +4472,7 @@
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -4485,7 +4485,7 @@
       <c r="K214" s="6"/>
       <c r="L214" s="6"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -4498,7 +4498,7 @@
       <c r="K215" s="6"/>
       <c r="L215" s="6"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -4511,7 +4511,7 @@
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -4524,7 +4524,7 @@
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -4537,7 +4537,7 @@
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -4550,7 +4550,7 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -4563,7 +4563,7 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -4576,7 +4576,7 @@
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -4589,7 +4589,7 @@
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -4602,7 +4602,7 @@
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -4615,7 +4615,7 @@
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -4628,7 +4628,7 @@
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -4641,7 +4641,7 @@
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -4654,7 +4654,7 @@
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -4667,7 +4667,7 @@
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -4680,7 +4680,7 @@
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -4693,7 +4693,7 @@
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -4706,7 +4706,7 @@
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -4719,7 +4719,7 @@
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -4732,7 +4732,7 @@
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -4745,7 +4745,7 @@
       <c r="K234" s="6"/>
       <c r="L234" s="6"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -4758,7 +4758,7 @@
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -4771,7 +4771,7 @@
       <c r="K236" s="6"/>
       <c r="L236" s="6"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -4784,7 +4784,7 @@
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -4797,7 +4797,7 @@
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -4810,7 +4810,7 @@
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -4823,7 +4823,7 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -4836,7 +4836,7 @@
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -4849,7 +4849,7 @@
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -4862,7 +4862,7 @@
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -4875,7 +4875,7 @@
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -4888,7 +4888,7 @@
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -4901,7 +4901,7 @@
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -4914,7 +4914,7 @@
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -4927,7 +4927,7 @@
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -4940,7 +4940,7 @@
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -4953,7 +4953,7 @@
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -4966,7 +4966,7 @@
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -4979,7 +4979,7 @@
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -4992,7 +4992,7 @@
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -5005,7 +5005,7 @@
       <c r="K254" s="6"/>
       <c r="L254" s="6"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -5018,7 +5018,7 @@
       <c r="K255" s="6"/>
       <c r="L255" s="6"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -5031,7 +5031,7 @@
       <c r="K256" s="6"/>
       <c r="L256" s="6"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -5044,7 +5044,7 @@
       <c r="K257" s="6"/>
       <c r="L257" s="6"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -5057,7 +5057,7 @@
       <c r="K258" s="6"/>
       <c r="L258" s="6"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -5070,7 +5070,7 @@
       <c r="K259" s="6"/>
       <c r="L259" s="6"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -5083,7 +5083,7 @@
       <c r="K260" s="6"/>
       <c r="L260" s="6"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -5096,7 +5096,7 @@
       <c r="K261" s="6"/>
       <c r="L261" s="6"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -5109,7 +5109,7 @@
       <c r="K262" s="6"/>
       <c r="L262" s="6"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -5122,7 +5122,7 @@
       <c r="K263" s="6"/>
       <c r="L263" s="6"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -5135,7 +5135,7 @@
       <c r="K264" s="6"/>
       <c r="L264" s="6"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -5148,7 +5148,7 @@
       <c r="K265" s="6"/>
       <c r="L265" s="6"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -5161,7 +5161,7 @@
       <c r="K266" s="6"/>
       <c r="L266" s="6"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -5174,7 +5174,7 @@
       <c r="K267" s="6"/>
       <c r="L267" s="6"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -5187,7 +5187,7 @@
       <c r="K268" s="6"/>
       <c r="L268" s="6"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -5200,7 +5200,7 @@
       <c r="K269" s="6"/>
       <c r="L269" s="6"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -5213,7 +5213,7 @@
       <c r="K270" s="6"/>
       <c r="L270" s="6"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -5226,7 +5226,7 @@
       <c r="K271" s="6"/>
       <c r="L271" s="6"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -5239,7 +5239,7 @@
       <c r="K272" s="6"/>
       <c r="L272" s="6"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -5252,7 +5252,7 @@
       <c r="K273" s="6"/>
       <c r="L273" s="6"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -5265,7 +5265,7 @@
       <c r="K274" s="6"/>
       <c r="L274" s="6"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -5278,7 +5278,7 @@
       <c r="K275" s="6"/>
       <c r="L275" s="6"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -5291,7 +5291,7 @@
       <c r="K276" s="6"/>
       <c r="L276" s="6"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -5304,7 +5304,7 @@
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -5317,7 +5317,7 @@
       <c r="K278" s="6"/>
       <c r="L278" s="6"/>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -5330,7 +5330,7 @@
       <c r="K279" s="6"/>
       <c r="L279" s="6"/>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -5343,7 +5343,7 @@
       <c r="K280" s="6"/>
       <c r="L280" s="6"/>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -5356,7 +5356,7 @@
       <c r="K281" s="6"/>
       <c r="L281" s="6"/>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -5369,7 +5369,7 @@
       <c r="K282" s="6"/>
       <c r="L282" s="6"/>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -5382,7 +5382,7 @@
       <c r="K283" s="6"/>
       <c r="L283" s="6"/>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -5395,7 +5395,7 @@
       <c r="K284" s="6"/>
       <c r="L284" s="6"/>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -5408,7 +5408,7 @@
       <c r="K285" s="6"/>
       <c r="L285" s="6"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -5421,7 +5421,7 @@
       <c r="K286" s="6"/>
       <c r="L286" s="6"/>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -5434,7 +5434,7 @@
       <c r="K287" s="6"/>
       <c r="L287" s="6"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -5447,7 +5447,7 @@
       <c r="K288" s="6"/>
       <c r="L288" s="6"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -5460,7 +5460,7 @@
       <c r="K289" s="6"/>
       <c r="L289" s="6"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -5473,7 +5473,7 @@
       <c r="K290" s="6"/>
       <c r="L290" s="6"/>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -5486,7 +5486,7 @@
       <c r="K291" s="6"/>
       <c r="L291" s="6"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -5499,7 +5499,7 @@
       <c r="K292" s="6"/>
       <c r="L292" s="6"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -5512,7 +5512,7 @@
       <c r="K293" s="6"/>
       <c r="L293" s="6"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -5525,7 +5525,7 @@
       <c r="K294" s="6"/>
       <c r="L294" s="6"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -5538,7 +5538,7 @@
       <c r="K295" s="6"/>
       <c r="L295" s="6"/>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -5551,7 +5551,7 @@
       <c r="K296" s="6"/>
       <c r="L296" s="6"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -5564,7 +5564,7 @@
       <c r="K297" s="6"/>
       <c r="L297" s="6"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -5577,7 +5577,7 @@
       <c r="K298" s="6"/>
       <c r="L298" s="6"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -5590,7 +5590,7 @@
       <c r="K299" s="6"/>
       <c r="L299" s="6"/>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -5603,7 +5603,7 @@
       <c r="K300" s="6"/>
       <c r="L300" s="6"/>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -5616,7 +5616,7 @@
       <c r="K301" s="6"/>
       <c r="L301" s="6"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -5629,7 +5629,7 @@
       <c r="K302" s="6"/>
       <c r="L302" s="6"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -5642,7 +5642,7 @@
       <c r="K303" s="6"/>
       <c r="L303" s="6"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -5655,7 +5655,7 @@
       <c r="K304" s="6"/>
       <c r="L304" s="6"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -5668,7 +5668,7 @@
       <c r="K305" s="6"/>
       <c r="L305" s="6"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -5681,7 +5681,7 @@
       <c r="K306" s="6"/>
       <c r="L306" s="6"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -5694,7 +5694,7 @@
       <c r="K307" s="6"/>
       <c r="L307" s="6"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -5707,7 +5707,7 @@
       <c r="K308" s="6"/>
       <c r="L308" s="6"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -5720,7 +5720,7 @@
       <c r="K309" s="6"/>
       <c r="L309" s="6"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -5733,7 +5733,7 @@
       <c r="K310" s="6"/>
       <c r="L310" s="6"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -5746,7 +5746,7 @@
       <c r="K311" s="6"/>
       <c r="L311" s="6"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -5759,7 +5759,7 @@
       <c r="K312" s="6"/>
       <c r="L312" s="6"/>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -5772,7 +5772,7 @@
       <c r="K313" s="6"/>
       <c r="L313" s="6"/>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -5785,7 +5785,7 @@
       <c r="K314" s="6"/>
       <c r="L314" s="6"/>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -5798,7 +5798,7 @@
       <c r="K315" s="6"/>
       <c r="L315" s="6"/>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -5811,7 +5811,7 @@
       <c r="K316" s="6"/>
       <c r="L316" s="6"/>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -5824,7 +5824,7 @@
       <c r="K317" s="6"/>
       <c r="L317" s="6"/>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -5837,7 +5837,7 @@
       <c r="K318" s="6"/>
       <c r="L318" s="6"/>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -5850,7 +5850,7 @@
       <c r="K319" s="6"/>
       <c r="L319" s="6"/>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -5863,7 +5863,7 @@
       <c r="K320" s="6"/>
       <c r="L320" s="6"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -5876,7 +5876,7 @@
       <c r="K321" s="6"/>
       <c r="L321" s="6"/>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -5889,7 +5889,7 @@
       <c r="K322" s="6"/>
       <c r="L322" s="6"/>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -5902,7 +5902,7 @@
       <c r="K323" s="6"/>
       <c r="L323" s="6"/>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -5915,7 +5915,7 @@
       <c r="K324" s="6"/>
       <c r="L324" s="6"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -5928,7 +5928,7 @@
       <c r="K325" s="6"/>
       <c r="L325" s="6"/>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -5941,7 +5941,7 @@
       <c r="K326" s="6"/>
       <c r="L326" s="6"/>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -5954,7 +5954,7 @@
       <c r="K327" s="6"/>
       <c r="L327" s="6"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -5967,7 +5967,7 @@
       <c r="K328" s="6"/>
       <c r="L328" s="6"/>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -5980,7 +5980,7 @@
       <c r="K329" s="6"/>
       <c r="L329" s="6"/>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -5993,7 +5993,7 @@
       <c r="K330" s="6"/>
       <c r="L330" s="6"/>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -6006,7 +6006,7 @@
       <c r="K331" s="6"/>
       <c r="L331" s="6"/>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -6019,7 +6019,7 @@
       <c r="K332" s="6"/>
       <c r="L332" s="6"/>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -6032,7 +6032,7 @@
       <c r="K333" s="6"/>
       <c r="L333" s="6"/>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -6045,7 +6045,7 @@
       <c r="K334" s="6"/>
       <c r="L334" s="6"/>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -6058,7 +6058,7 @@
       <c r="K335" s="6"/>
       <c r="L335" s="6"/>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -6071,7 +6071,7 @@
       <c r="K336" s="6"/>
       <c r="L336" s="6"/>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -6084,7 +6084,7 @@
       <c r="K337" s="6"/>
       <c r="L337" s="6"/>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -6097,7 +6097,7 @@
       <c r="K338" s="6"/>
       <c r="L338" s="6"/>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -6110,7 +6110,7 @@
       <c r="K339" s="6"/>
       <c r="L339" s="6"/>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -6123,7 +6123,7 @@
       <c r="K340" s="6"/>
       <c r="L340" s="6"/>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -6136,7 +6136,7 @@
       <c r="K341" s="6"/>
       <c r="L341" s="6"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -6149,7 +6149,7 @@
       <c r="K342" s="6"/>
       <c r="L342" s="6"/>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -6162,7 +6162,7 @@
       <c r="K343" s="6"/>
       <c r="L343" s="6"/>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -6175,7 +6175,7 @@
       <c r="K344" s="6"/>
       <c r="L344" s="6"/>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -6188,7 +6188,7 @@
       <c r="K345" s="6"/>
       <c r="L345" s="6"/>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -6201,7 +6201,7 @@
       <c r="K346" s="6"/>
       <c r="L346" s="6"/>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -6214,7 +6214,7 @@
       <c r="K347" s="6"/>
       <c r="L347" s="6"/>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -6227,7 +6227,7 @@
       <c r="K348" s="6"/>
       <c r="L348" s="6"/>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -6240,7 +6240,7 @@
       <c r="K349" s="6"/>
       <c r="L349" s="6"/>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -6253,7 +6253,7 @@
       <c r="K350" s="6"/>
       <c r="L350" s="6"/>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -6266,7 +6266,7 @@
       <c r="K351" s="6"/>
       <c r="L351" s="6"/>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -6279,7 +6279,7 @@
       <c r="K352" s="6"/>
       <c r="L352" s="6"/>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -6292,7 +6292,7 @@
       <c r="K353" s="6"/>
       <c r="L353" s="6"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -6305,7 +6305,7 @@
       <c r="K354" s="6"/>
       <c r="L354" s="6"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -6318,7 +6318,7 @@
       <c r="K355" s="6"/>
       <c r="L355" s="6"/>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -6331,7 +6331,7 @@
       <c r="K356" s="6"/>
       <c r="L356" s="6"/>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -6344,7 +6344,7 @@
       <c r="K357" s="6"/>
       <c r="L357" s="6"/>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -6357,7 +6357,7 @@
       <c r="K358" s="6"/>
       <c r="L358" s="6"/>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -6370,7 +6370,7 @@
       <c r="K359" s="6"/>
       <c r="L359" s="6"/>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -6383,7 +6383,7 @@
       <c r="K360" s="6"/>
       <c r="L360" s="6"/>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -6396,7 +6396,7 @@
       <c r="K361" s="6"/>
       <c r="L361" s="6"/>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -6409,7 +6409,7 @@
       <c r="K362" s="6"/>
       <c r="L362" s="6"/>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -6422,7 +6422,7 @@
       <c r="K363" s="6"/>
       <c r="L363" s="6"/>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -6435,7 +6435,7 @@
       <c r="K364" s="6"/>
       <c r="L364" s="6"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -6448,7 +6448,7 @@
       <c r="K365" s="6"/>
       <c r="L365" s="6"/>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -6461,7 +6461,7 @@
       <c r="K366" s="6"/>
       <c r="L366" s="6"/>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -6474,7 +6474,7 @@
       <c r="K367" s="6"/>
       <c r="L367" s="6"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -6487,7 +6487,7 @@
       <c r="K368" s="6"/>
       <c r="L368" s="6"/>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -6500,7 +6500,7 @@
       <c r="K369" s="6"/>
       <c r="L369" s="6"/>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -6513,7 +6513,7 @@
       <c r="K370" s="6"/>
       <c r="L370" s="6"/>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -6526,7 +6526,7 @@
       <c r="K371" s="6"/>
       <c r="L371" s="6"/>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -6539,7 +6539,7 @@
       <c r="K372" s="6"/>
       <c r="L372" s="6"/>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -6552,7 +6552,7 @@
       <c r="K373" s="6"/>
       <c r="L373" s="6"/>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -6565,7 +6565,7 @@
       <c r="K374" s="6"/>
       <c r="L374" s="6"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -6578,7 +6578,7 @@
       <c r="K375" s="6"/>
       <c r="L375" s="6"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -6591,7 +6591,7 @@
       <c r="K376" s="6"/>
       <c r="L376" s="6"/>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -6604,7 +6604,7 @@
       <c r="K377" s="6"/>
       <c r="L377" s="6"/>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -6617,7 +6617,7 @@
       <c r="K378" s="6"/>
       <c r="L378" s="6"/>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -6630,7 +6630,7 @@
       <c r="K379" s="6"/>
       <c r="L379" s="6"/>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -6643,7 +6643,7 @@
       <c r="K380" s="6"/>
       <c r="L380" s="6"/>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -6656,7 +6656,7 @@
       <c r="K381" s="6"/>
       <c r="L381" s="6"/>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -6669,7 +6669,7 @@
       <c r="K382" s="6"/>
       <c r="L382" s="6"/>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -6682,7 +6682,7 @@
       <c r="K383" s="6"/>
       <c r="L383" s="6"/>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -6695,7 +6695,7 @@
       <c r="K384" s="6"/>
       <c r="L384" s="6"/>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -6708,7 +6708,7 @@
       <c r="K385" s="6"/>
       <c r="L385" s="6"/>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -6721,7 +6721,7 @@
       <c r="K386" s="6"/>
       <c r="L386" s="6"/>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -6734,7 +6734,7 @@
       <c r="K387" s="6"/>
       <c r="L387" s="6"/>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -6747,7 +6747,7 @@
       <c r="K388" s="6"/>
       <c r="L388" s="6"/>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -6760,7 +6760,7 @@
       <c r="K389" s="6"/>
       <c r="L389" s="6"/>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -6773,7 +6773,7 @@
       <c r="K390" s="6"/>
       <c r="L390" s="6"/>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -6786,7 +6786,7 @@
       <c r="K391" s="6"/>
       <c r="L391" s="6"/>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -6799,7 +6799,7 @@
       <c r="K392" s="6"/>
       <c r="L392" s="6"/>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -6812,7 +6812,7 @@
       <c r="K393" s="6"/>
       <c r="L393" s="6"/>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -6825,7 +6825,7 @@
       <c r="K394" s="6"/>
       <c r="L394" s="6"/>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -6838,7 +6838,7 @@
       <c r="K395" s="6"/>
       <c r="L395" s="6"/>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -6851,7 +6851,7 @@
       <c r="K396" s="6"/>
       <c r="L396" s="6"/>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -6864,7 +6864,7 @@
       <c r="K397" s="6"/>
       <c r="L397" s="6"/>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -6877,7 +6877,7 @@
       <c r="K398" s="6"/>
       <c r="L398" s="6"/>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -6890,7 +6890,7 @@
       <c r="K399" s="6"/>
       <c r="L399" s="6"/>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -6903,7 +6903,7 @@
       <c r="K400" s="6"/>
       <c r="L400" s="6"/>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -6916,7 +6916,7 @@
       <c r="K401" s="6"/>
       <c r="L401" s="6"/>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -6929,7 +6929,7 @@
       <c r="K402" s="6"/>
       <c r="L402" s="6"/>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -6942,7 +6942,7 @@
       <c r="K403" s="6"/>
       <c r="L403" s="6"/>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -6955,7 +6955,7 @@
       <c r="K404" s="6"/>
       <c r="L404" s="6"/>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -6968,7 +6968,7 @@
       <c r="K405" s="6"/>
       <c r="L405" s="6"/>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -6981,7 +6981,7 @@
       <c r="K406" s="6"/>
       <c r="L406" s="6"/>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -6994,7 +6994,7 @@
       <c r="K407" s="6"/>
       <c r="L407" s="6"/>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -7007,7 +7007,7 @@
       <c r="K408" s="6"/>
       <c r="L408" s="6"/>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -7020,7 +7020,7 @@
       <c r="K409" s="6"/>
       <c r="L409" s="6"/>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -7033,7 +7033,7 @@
       <c r="K410" s="6"/>
       <c r="L410" s="6"/>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -7046,7 +7046,7 @@
       <c r="K411" s="6"/>
       <c r="L411" s="6"/>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -7059,7 +7059,7 @@
       <c r="K412" s="6"/>
       <c r="L412" s="6"/>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -7072,7 +7072,7 @@
       <c r="K413" s="6"/>
       <c r="L413" s="6"/>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -7085,7 +7085,7 @@
       <c r="K414" s="6"/>
       <c r="L414" s="6"/>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -7098,7 +7098,7 @@
       <c r="K415" s="6"/>
       <c r="L415" s="6"/>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -7111,7 +7111,7 @@
       <c r="K416" s="6"/>
       <c r="L416" s="6"/>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -7124,7 +7124,7 @@
       <c r="K417" s="6"/>
       <c r="L417" s="6"/>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -7137,7 +7137,7 @@
       <c r="K418" s="6"/>
       <c r="L418" s="6"/>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -7150,7 +7150,7 @@
       <c r="K419" s="6"/>
       <c r="L419" s="6"/>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -7163,7 +7163,7 @@
       <c r="K420" s="6"/>
       <c r="L420" s="6"/>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -7176,7 +7176,7 @@
       <c r="K421" s="6"/>
       <c r="L421" s="6"/>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -7189,7 +7189,7 @@
       <c r="K422" s="6"/>
       <c r="L422" s="6"/>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -7202,7 +7202,7 @@
       <c r="K423" s="6"/>
       <c r="L423" s="6"/>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -7215,7 +7215,7 @@
       <c r="K424" s="6"/>
       <c r="L424" s="6"/>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -7228,7 +7228,7 @@
       <c r="K425" s="6"/>
       <c r="L425" s="6"/>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -7241,7 +7241,7 @@
       <c r="K426" s="6"/>
       <c r="L426" s="6"/>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -7254,7 +7254,7 @@
       <c r="K427" s="6"/>
       <c r="L427" s="6"/>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -7267,7 +7267,7 @@
       <c r="K428" s="6"/>
       <c r="L428" s="6"/>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -7280,7 +7280,7 @@
       <c r="K429" s="6"/>
       <c r="L429" s="6"/>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -7293,7 +7293,7 @@
       <c r="K430" s="6"/>
       <c r="L430" s="6"/>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -7306,7 +7306,7 @@
       <c r="K431" s="6"/>
       <c r="L431" s="6"/>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -7319,7 +7319,7 @@
       <c r="K432" s="6"/>
       <c r="L432" s="6"/>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -7332,7 +7332,7 @@
       <c r="K433" s="6"/>
       <c r="L433" s="6"/>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -7345,7 +7345,7 @@
       <c r="K434" s="6"/>
       <c r="L434" s="6"/>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -7358,7 +7358,7 @@
       <c r="K435" s="6"/>
       <c r="L435" s="6"/>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -7371,7 +7371,7 @@
       <c r="K436" s="6"/>
       <c r="L436" s="6"/>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -7384,7 +7384,7 @@
       <c r="K437" s="6"/>
       <c r="L437" s="6"/>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -7397,7 +7397,7 @@
       <c r="K438" s="6"/>
       <c r="L438" s="6"/>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -7410,7 +7410,7 @@
       <c r="K439" s="6"/>
       <c r="L439" s="6"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -7423,7 +7423,7 @@
       <c r="K440" s="6"/>
       <c r="L440" s="6"/>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -7436,7 +7436,7 @@
       <c r="K441" s="6"/>
       <c r="L441" s="6"/>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -7449,7 +7449,7 @@
       <c r="K442" s="6"/>
       <c r="L442" s="6"/>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -7462,7 +7462,7 @@
       <c r="K443" s="6"/>
       <c r="L443" s="6"/>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -7475,7 +7475,7 @@
       <c r="K444" s="6"/>
       <c r="L444" s="6"/>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -7488,7 +7488,7 @@
       <c r="K445" s="6"/>
       <c r="L445" s="6"/>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -7501,7 +7501,7 @@
       <c r="K446" s="6"/>
       <c r="L446" s="6"/>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -7514,7 +7514,7 @@
       <c r="K447" s="6"/>
       <c r="L447" s="6"/>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -7527,7 +7527,7 @@
       <c r="K448" s="6"/>
       <c r="L448" s="6"/>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -7540,7 +7540,7 @@
       <c r="K449" s="6"/>
       <c r="L449" s="6"/>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -7553,7 +7553,7 @@
       <c r="K450" s="6"/>
       <c r="L450" s="6"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -7566,7 +7566,7 @@
       <c r="K451" s="6"/>
       <c r="L451" s="6"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -7579,7 +7579,7 @@
       <c r="K452" s="6"/>
       <c r="L452" s="6"/>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -7592,7 +7592,7 @@
       <c r="K453" s="6"/>
       <c r="L453" s="6"/>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -7605,7 +7605,7 @@
       <c r="K454" s="6"/>
       <c r="L454" s="6"/>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -7618,7 +7618,7 @@
       <c r="K455" s="6"/>
       <c r="L455" s="6"/>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -7631,7 +7631,7 @@
       <c r="K456" s="6"/>
       <c r="L456" s="6"/>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -7644,7 +7644,7 @@
       <c r="K457" s="6"/>
       <c r="L457" s="6"/>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -7657,7 +7657,7 @@
       <c r="K458" s="6"/>
       <c r="L458" s="6"/>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -7670,7 +7670,7 @@
       <c r="K459" s="6"/>
       <c r="L459" s="6"/>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -7683,7 +7683,7 @@
       <c r="K460" s="6"/>
       <c r="L460" s="6"/>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -7696,7 +7696,7 @@
       <c r="K461" s="6"/>
       <c r="L461" s="6"/>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -7709,7 +7709,7 @@
       <c r="K462" s="6"/>
       <c r="L462" s="6"/>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -7722,7 +7722,7 @@
       <c r="K463" s="6"/>
       <c r="L463" s="6"/>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -7735,7 +7735,7 @@
       <c r="K464" s="6"/>
       <c r="L464" s="6"/>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -7748,7 +7748,7 @@
       <c r="K465" s="6"/>
       <c r="L465" s="6"/>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -7761,7 +7761,7 @@
       <c r="K466" s="6"/>
       <c r="L466" s="6"/>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -7774,7 +7774,7 @@
       <c r="K467" s="6"/>
       <c r="L467" s="6"/>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -7787,7 +7787,7 @@
       <c r="K468" s="6"/>
       <c r="L468" s="6"/>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -7800,7 +7800,7 @@
       <c r="K469" s="6"/>
       <c r="L469" s="6"/>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -7813,7 +7813,7 @@
       <c r="K470" s="6"/>
       <c r="L470" s="6"/>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -7826,7 +7826,7 @@
       <c r="K471" s="6"/>
       <c r="L471" s="6"/>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -7839,7 +7839,7 @@
       <c r="K472" s="6"/>
       <c r="L472" s="6"/>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -7852,7 +7852,7 @@
       <c r="K473" s="6"/>
       <c r="L473" s="6"/>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -7865,7 +7865,7 @@
       <c r="K474" s="6"/>
       <c r="L474" s="6"/>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -7878,7 +7878,7 @@
       <c r="K475" s="6"/>
       <c r="L475" s="6"/>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -7891,7 +7891,7 @@
       <c r="K476" s="6"/>
       <c r="L476" s="6"/>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -7904,7 +7904,7 @@
       <c r="K477" s="6"/>
       <c r="L477" s="6"/>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -7917,7 +7917,7 @@
       <c r="K478" s="6"/>
       <c r="L478" s="6"/>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -7930,7 +7930,7 @@
       <c r="K479" s="6"/>
       <c r="L479" s="6"/>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -7943,7 +7943,7 @@
       <c r="K480" s="6"/>
       <c r="L480" s="6"/>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -7956,7 +7956,7 @@
       <c r="K481" s="6"/>
       <c r="L481" s="6"/>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -7969,7 +7969,7 @@
       <c r="K482" s="6"/>
       <c r="L482" s="6"/>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -7982,7 +7982,7 @@
       <c r="K483" s="6"/>
       <c r="L483" s="6"/>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -7995,7 +7995,7 @@
       <c r="K484" s="6"/>
       <c r="L484" s="6"/>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -8008,7 +8008,7 @@
       <c r="K485" s="6"/>
       <c r="L485" s="6"/>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -8021,7 +8021,7 @@
       <c r="K486" s="6"/>
       <c r="L486" s="6"/>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -8034,7 +8034,7 @@
       <c r="K487" s="6"/>
       <c r="L487" s="6"/>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -8047,7 +8047,7 @@
       <c r="K488" s="6"/>
       <c r="L488" s="6"/>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -8060,7 +8060,7 @@
       <c r="K489" s="6"/>
       <c r="L489" s="6"/>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -8073,7 +8073,7 @@
       <c r="K490" s="6"/>
       <c r="L490" s="6"/>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -8086,7 +8086,7 @@
       <c r="K491" s="6"/>
       <c r="L491" s="6"/>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -8099,7 +8099,7 @@
       <c r="K492" s="6"/>
       <c r="L492" s="6"/>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -8112,7 +8112,7 @@
       <c r="K493" s="6"/>
       <c r="L493" s="6"/>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -8125,7 +8125,7 @@
       <c r="K494" s="6"/>
       <c r="L494" s="6"/>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -8138,7 +8138,7 @@
       <c r="K495" s="6"/>
       <c r="L495" s="6"/>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -8151,7 +8151,7 @@
       <c r="K496" s="6"/>
       <c r="L496" s="6"/>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -8164,7 +8164,7 @@
       <c r="K497" s="6"/>
       <c r="L497" s="6"/>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -8177,7 +8177,7 @@
       <c r="K498" s="6"/>
       <c r="L498" s="6"/>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -8190,7 +8190,7 @@
       <c r="K499" s="6"/>
       <c r="L499" s="6"/>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -8203,7 +8203,7 @@
       <c r="K500" s="6"/>
       <c r="L500" s="6"/>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -8216,7 +8216,7 @@
       <c r="K501" s="6"/>
       <c r="L501" s="6"/>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -8229,7 +8229,7 @@
       <c r="K502" s="6"/>
       <c r="L502" s="6"/>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -8242,7 +8242,7 @@
       <c r="K503" s="6"/>
       <c r="L503" s="6"/>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -8255,7 +8255,7 @@
       <c r="K504" s="6"/>
       <c r="L504" s="6"/>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -8268,7 +8268,7 @@
       <c r="K505" s="6"/>
       <c r="L505" s="6"/>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -8281,7 +8281,7 @@
       <c r="K506" s="6"/>
       <c r="L506" s="6"/>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -8294,7 +8294,7 @@
       <c r="K507" s="6"/>
       <c r="L507" s="6"/>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -8307,7 +8307,7 @@
       <c r="K508" s="6"/>
       <c r="L508" s="6"/>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -8320,7 +8320,7 @@
       <c r="K509" s="6"/>
       <c r="L509" s="6"/>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>

--- a/output/Inter_IntraVariation_CK.xlsx
+++ b/output/Inter_IntraVariation_CK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive - USU\Desktop\ASU green iguana 2021\greeniguanaAnalysis\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABB3C95-8834-42F0-9E8E-FE08416B4680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2412CD08-AB4F-4AAA-AF99-59BD37222774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15270" xr2:uid="{4E0824B5-875B-40B9-920C-3369E689C253}"/>
   </bookViews>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -309,6 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,12 +624,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD948F92-F30E-4C35-9CD4-36F7688BAFFD}">
-  <dimension ref="A1:R510"/>
+  <dimension ref="A1:Z510"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,9 +643,10 @@
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.1796875" style="25"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -695,8 +697,16 @@
         <v>8</v>
       </c>
       <c r="R1" s="26"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="9"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="11"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -749,8 +759,16 @@
         <f>_xlfn.STDEV.S(N2:O2,N8:O13)/AVERAGE(N2:O2, N8:O13)*100</f>
         <v>23.205847675789411</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="13"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="30"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -789,8 +807,12 @@
       </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" s="12"/>
+      <c r="U3" s="1"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -829,8 +851,12 @@
       </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" s="12"/>
+      <c r="U4" s="1"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -870,8 +896,12 @@
       </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" s="12"/>
+      <c r="U5" s="1"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
@@ -914,8 +944,12 @@
       </c>
       <c r="P6" s="23"/>
       <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="12"/>
+      <c r="U6" s="1"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -957,8 +991,12 @@
         <v>13.701838731184484</v>
       </c>
       <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" s="12"/>
+      <c r="U7" s="1"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -997,8 +1035,12 @@
       </c>
       <c r="P8" s="20"/>
       <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" s="12"/>
+      <c r="U8" s="1"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
@@ -1037,8 +1079,12 @@
       </c>
       <c r="P9" s="20"/>
       <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" s="12"/>
+      <c r="U9" s="1"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
@@ -1077,8 +1123,16 @@
       </c>
       <c r="P10" s="20"/>
       <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" s="5"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1172,7 @@
       <c r="P11" s="20"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1214,7 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="C13" s="18"/>
       <c r="G13" s="24"/>
@@ -1188,7 +1242,7 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -1224,7 +1278,7 @@
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1322,7 @@
         <v>6.0948957860509063</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>7</v>
       </c>
